--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSOUZA14\Music\PANDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7CD971-3634-4EEC-BB05-A18F78E44A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D54D8-32FC-4C0E-987B-82C6326783E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -507,13 +508,31 @@
   </si>
   <si>
     <t>2025-09-20T12:44:23Z</t>
+  </si>
+  <si>
+    <t>tste</t>
+  </si>
+  <si>
+    <t>teste teste</t>
+  </si>
+  <si>
+    <t>2025-09-22T11:04:07Z</t>
+  </si>
+  <si>
+    <t>2025-09-22T11:05:30Z</t>
+  </si>
+  <si>
+    <t>2025-09-22T11:03:05Z</t>
+  </si>
+  <si>
+    <t>2025-09-22T11:15:24Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,12 +544,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,18 +581,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,8 +910,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{860F4275-0FDC-40EC-9092-92FB01F60019}" name="Table1" displayName="Table1" ref="A1:G110" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G110" xr:uid="{860F4275-0FDC-40EC-9092-92FB01F60019}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{860F4275-0FDC-40EC-9092-92FB01F60019}" name="Table1" displayName="Table1" ref="A1:G116" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G116" xr:uid="{860F4275-0FDC-40EC-9092-92FB01F60019}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{44C90BC8-0ED8-423C-85C1-B133C2001AF2}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{935D969F-3536-499D-86C6-A96BDAD93DB7}" name="Praetor" dataDxfId="5"/>
@@ -1235,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,233 +3548,687 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>39</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>20500</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" t="s">
         <v>105</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="4" t="s">
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>39</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>20500</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" t="s">
         <v>105</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="4" t="s">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>40</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>20245</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>105</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="4" t="s">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>40</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>20245</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>105</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="4" t="s">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>40</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>20245</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s">
         <v>105</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="4" t="s">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
         <v>27</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>19</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>20250</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>63</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="4" t="s">
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
         <v>32</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>41</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>20255</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s">
         <v>105</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" t="s">
         <v>105</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="4" t="s">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="3" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>39</v>
+      </c>
+      <c r="B109">
+        <v>20500</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>20245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111">
+        <v>20255</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>39</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B112">
         <v>20500</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C112" t="s">
         <v>105</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D112" t="s">
         <v>105</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="4" t="s">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113">
+        <v>20250</v>
+      </c>
+      <c r="C113" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>42</v>
+      </c>
+      <c r="B114">
+        <v>20222</v>
+      </c>
+      <c r="C114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>42</v>
+      </c>
+      <c r="B115">
+        <v>20222</v>
+      </c>
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>20242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>39</v>
+      </c>
+      <c r="B117">
+        <v>20500</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>20500</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>40</v>
+      </c>
+      <c r="B119">
+        <v>20245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>40</v>
+      </c>
+      <c r="B120">
+        <v>20245</v>
+      </c>
+      <c r="C120" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>20245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>20250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123">
+        <v>20255</v>
+      </c>
+      <c r="C123" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>39</v>
+      </c>
+      <c r="B124">
+        <v>20500</v>
+      </c>
+      <c r="C124" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" t="s">
+        <v>105</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>40</v>
+      </c>
+      <c r="B125">
+        <v>20245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>40</v>
-      </c>
-      <c r="B110" s="3">
-        <v>20245</v>
-      </c>
-      <c r="C110" s="3" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126">
+        <v>20255</v>
+      </c>
+      <c r="C126" t="s">
         <v>105</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D126" t="s">
         <v>105</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>41</v>
-      </c>
-      <c r="B111" s="3">
-        <v>20255</v>
-      </c>
-      <c r="C111" s="3" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>39</v>
+      </c>
+      <c r="B127">
+        <v>20500</v>
+      </c>
+      <c r="C127" t="s">
         <v>105</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D127" t="s">
         <v>105</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="4" t="s">
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>20250</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>42</v>
+      </c>
+      <c r="B129">
+        <v>20222</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>42</v>
+      </c>
+      <c r="B130">
+        <v>20222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>156</v>
+      <c r="G130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>20242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
